--- a/regex.xlsx
+++ b/regex.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\OneDrive\Documentos\PAT-2\Fase 2\Metadados, Relatório, Calendário e Sugestões de Melhoria\METADADOS AJUSTADOS 15.02.2025\CONFIGURAÇÕES GERAIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEWDATA\Documents\OCHILI\Administrativo\Projectos\PAT2\Fase 2\ENTREGÁVEIS DA FASE 2\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F700A275-171D-446C-BC90-4D43EB8EA393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C280212B-03AE-4F65-B172-3B9CA1FBF3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,8 +369,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,788 +655,789 @@
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C47" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C51" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="C51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C52" t="s">
-        <v>94</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="C52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C53" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="C53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C54" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C55" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C55" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C58" t="s">
-        <v>94</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="C58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C65" t="s">
-        <v>94</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C65" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C66" t="s">
-        <v>94</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="C66" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C67" t="s">
-        <v>94</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="C67" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C68" t="s">
-        <v>94</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="C68" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="1" t="s">
         <v>82</v>
       </c>
     </row>

--- a/regex.xlsx
+++ b/regex.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEWDATA\Documents\OCHILI\Administrativo\Projectos\PAT2\Fase 2\ENTREGÁVEIS DA FASE 2\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\OneDrive\Documentos\PAT-2\Fase 2\Metadados, Relatório, Calendário e Sugestões de Melhoria\METADADOS AJUSTADOS 15.02.2025\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C280212B-03AE-4F65-B172-3B9CA1FBF3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F700A275-171D-446C-BC90-4D43EB8EA393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,9 +369,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,789 +654,788 @@
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="61.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>93</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>93</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>90</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>74</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="C51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="C52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="C53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="C54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="C55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="C56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>97</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="C58" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>99</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>99</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>99</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>90</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>96</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>93</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="C65" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="C66" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="C67" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="C68" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" t="s">
         <v>93</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" t="s">
         <v>82</v>
       </c>
     </row>

--- a/regex.xlsx
+++ b/regex.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\OneDrive\Documentos\PAT-2\Fase 2\Metadados, Relatório, Calendário e Sugestões de Melhoria\METADADOS AJUSTADOS 15.02.2025\CONFIGURAÇÕES GERAIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Documents\OCHILI\OCHILI\Administrativo\Projectos\PAT2\Fase 2\ENTREGÁVEIS FASE 2 VERSÃO ACTUALIZADA\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F700A275-171D-446C-BC90-4D43EB8EA393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF28455-0935-457D-AE7F-E0032AAB2F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$D$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$D$71</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="104">
   <si>
     <t>padrao</t>
   </si>
@@ -334,6 +334,12 @@
   </si>
   <si>
     <t>regex(., '^[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}$')</t>
+  </si>
+  <si>
+    <t>total_secretarias</t>
+  </si>
+  <si>
+    <t>total_quadros</t>
   </si>
 </sst>
 </file>
@@ -369,8 +375,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,21 +658,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" customWidth="1"/>
+    <col min="1" max="1" width="61.28515625" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -679,7 +686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -690,7 +697,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -701,7 +708,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -712,7 +719,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -723,7 +730,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -734,7 +741,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -745,7 +752,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -756,7 +763,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -770,7 +777,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -781,7 +788,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -792,7 +799,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -803,7 +810,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -814,7 +821,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -825,7 +832,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -836,7 +843,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -847,7 +854,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -858,7 +865,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -869,7 +876,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -880,7 +887,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -891,7 +898,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -902,7 +909,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -913,7 +920,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -924,7 +931,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -935,97 +942,97 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="C26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="C26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="C27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="C28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="C29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="C30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>32</v>
-      </c>
-      <c r="C31" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>34</v>
       </c>
       <c r="C33" t="s">
         <v>92</v>
@@ -1034,9 +1041,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>92</v>
@@ -1045,9 +1052,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
         <v>92</v>
@@ -1056,45 +1063,42 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>90</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D38" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>62</v>
-      </c>
-      <c r="C37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>93</v>
@@ -1103,9 +1107,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
       </c>
       <c r="C40" t="s">
         <v>93</v>
@@ -1114,64 +1121,64 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>39</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C43" t="s">
         <v>95</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D43" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>40</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" t="s">
         <v>98</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D44" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>41</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C45" t="s">
         <v>98</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D45" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>42</v>
-      </c>
-      <c r="C44" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>44</v>
       </c>
       <c r="C46" t="s">
         <v>93</v>
@@ -1180,26 +1187,20 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
         <v>93</v>
@@ -1208,20 +1209,26 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>63</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>71</v>
       </c>
       <c r="C50" t="s">
         <v>93</v>
@@ -1230,119 +1237,119 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>47</v>
       </c>
-      <c r="C51" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="C53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>48</v>
       </c>
-      <c r="C52" t="s">
-        <v>94</v>
-      </c>
-      <c r="D52" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="C54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>49</v>
       </c>
-      <c r="C53" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="C55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>50</v>
       </c>
-      <c r="C54" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="C56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>51</v>
       </c>
-      <c r="C55" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="C57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>52</v>
       </c>
-      <c r="C56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="C58" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>53</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C59" t="s">
         <v>97</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D59" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>54</v>
       </c>
-      <c r="C58" t="s">
-        <v>94</v>
-      </c>
-      <c r="D58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="C60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>55</v>
-      </c>
-      <c r="C59" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60" t="s">
-        <v>99</v>
-      </c>
-      <c r="D60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>57</v>
       </c>
       <c r="C61" t="s">
         <v>99</v>
@@ -1351,91 +1358,113 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>58</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C64" t="s">
         <v>90</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D64" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>59</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C65" t="s">
         <v>96</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D65" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>65</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C66" t="s">
         <v>93</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D66" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="C65" t="s">
-        <v>94</v>
-      </c>
-      <c r="D65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="C67" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>68</v>
       </c>
-      <c r="C66" t="s">
-        <v>94</v>
-      </c>
-      <c r="D66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="C68" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>69</v>
       </c>
-      <c r="C67" t="s">
-        <v>94</v>
-      </c>
-      <c r="D67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="C69" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>73</v>
       </c>
-      <c r="C68" t="s">
-        <v>94</v>
-      </c>
-      <c r="D68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="C70" t="s">
+        <v>94</v>
+      </c>
+      <c r="D70" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>70</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C71" t="s">
         <v>93</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D71" t="s">
         <v>82</v>
       </c>
     </row>

--- a/regex.xlsx
+++ b/regex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Documents\OCHILI\OCHILI\Administrativo\Projectos\PAT2\Fase 2\ENTREGÁVEIS FASE 2 VERSÃO ACTUALIZADA\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF28455-0935-457D-AE7F-E0032AAB2F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3884A0-5956-4E4C-AC09-CDA258F2CD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$D$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$D$73</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="107">
   <si>
     <t>padrao</t>
   </si>
@@ -340,6 +340,15 @@
   </si>
   <si>
     <t>total_quadros</t>
+  </si>
+  <si>
+    <t>num_computadores_conexao_internet</t>
+  </si>
+  <si>
+    <t>num_tablets_conexao_internet</t>
+  </si>
+  <si>
+    <t>indique_estado_conservacao_salas_aula_fucionamento,situacao_salas_de_aula_uso_escola,locais_funcionamento_salas_aula</t>
   </si>
 </sst>
 </file>
@@ -375,9 +384,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:D27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,6 +855,9 @@
       <c r="A16" t="s">
         <v>17</v>
       </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
       <c r="C16" t="s">
         <v>92</v>
       </c>
@@ -946,26 +957,26 @@
       <c r="A25" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>103</v>
       </c>
       <c r="C27" t="s">
@@ -1021,7 +1032,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
         <v>94</v>
@@ -1032,29 +1043,29 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
         <v>92</v>
@@ -1065,7 +1076,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
         <v>92</v>
@@ -1076,7 +1087,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
         <v>92</v>
@@ -1087,43 +1098,40 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
         <v>93</v>
@@ -1134,7 +1142,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>72</v>
       </c>
       <c r="C42" t="s">
         <v>93</v>
@@ -1145,62 +1156,62 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D44" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C48" t="s">
         <v>93</v>
@@ -1211,24 +1222,18 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
         <v>93</v>
@@ -1239,18 +1244,24 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>63</v>
+      </c>
+      <c r="B51" t="s">
+        <v>67</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D51" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>45</v>
+      </c>
+      <c r="B52" t="s">
+        <v>71</v>
       </c>
       <c r="C52" t="s">
         <v>93</v>
@@ -1261,29 +1272,29 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D53" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C55" t="s">
         <v>94</v>
@@ -1294,7 +1305,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C56" t="s">
         <v>94</v>
@@ -1305,7 +1316,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C57" t="s">
         <v>94</v>
@@ -1316,7 +1327,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s">
         <v>94</v>
@@ -1327,18 +1338,18 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D59" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C60" t="s">
         <v>94</v>
@@ -1349,29 +1360,29 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C62" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D62" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C63" t="s">
         <v>99</v>
@@ -1382,62 +1393,62 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C64" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D64" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C65" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D65" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C66" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D66" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C67" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D67" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
         <v>94</v>
@@ -1448,7 +1459,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s">
         <v>94</v>
@@ -1459,12 +1470,34 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" t="s">
+        <v>94</v>
+      </c>
+      <c r="D72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>70</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C73" t="s">
         <v>93</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D73" t="s">
         <v>82</v>
       </c>
     </row>

--- a/regex.xlsx
+++ b/regex.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Documents\OCHILI\OCHILI\Administrativo\Projectos\PAT2\Fase 2\ENTREGÁVEIS FASE 2 VERSÃO ACTUALIZADA\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Desktop\fase 3 actualizado\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3884A0-5956-4E4C-AC09-CDA258F2CD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4914C373-E6F4-4E62-94CC-543BE8CC5CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -291,9 +291,6 @@
     <t>Texto de até 15 caracteres</t>
   </si>
   <si>
-    <t>Data no formato YYYY-MM-DD (ex: 2024-05-30)</t>
-  </si>
-  <si>
     <t>Número de telefone angolano (ex: 923456789)</t>
   </si>
   <si>
@@ -349,6 +346,9 @@
   </si>
   <si>
     <t>indique_estado_conservacao_salas_aula_fucionamento,situacao_salas_de_aula_uso_escola,locais_funcionamento_salas_aula</t>
+  </si>
+  <si>
+    <t>Data no formato DD-MM-AAAA (ex: 30-05-2024)</t>
   </si>
 </sst>
 </file>
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +699,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
         <v>75</v>
@@ -710,7 +710,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
         <v>76</v>
@@ -721,7 +721,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
         <v>76</v>
@@ -732,7 +732,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
         <v>76</v>
@@ -743,7 +743,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
         <v>78</v>
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
         <v>86</v>
@@ -765,7 +765,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
         <v>86</v>
@@ -779,7 +779,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
         <v>76</v>
@@ -790,10 +790,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -801,7 +801,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -812,7 +812,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
         <v>79</v>
@@ -823,10 +823,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -834,7 +834,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
         <v>81</v>
@@ -845,7 +845,7 @@
         <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
         <v>81</v>
@@ -856,10 +856,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
         <v>81</v>
@@ -870,7 +870,7 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
         <v>81</v>
@@ -881,7 +881,7 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
         <v>81</v>
@@ -892,7 +892,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
         <v>81</v>
@@ -903,7 +903,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
         <v>81</v>
@@ -914,7 +914,7 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
         <v>81</v>
@@ -925,7 +925,7 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
         <v>81</v>
@@ -936,7 +936,7 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
         <v>81</v>
@@ -947,7 +947,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
         <v>76</v>
@@ -955,10 +955,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
         <v>83</v>
@@ -969,7 +969,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
         <v>83</v>
@@ -977,10 +977,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
         <v>83</v>
@@ -991,7 +991,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
         <v>83</v>
@@ -1002,7 +1002,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
         <v>83</v>
@@ -1013,7 +1013,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
         <v>83</v>
@@ -1024,7 +1024,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
         <v>83</v>
@@ -1032,10 +1032,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
         <v>83</v>
@@ -1046,7 +1046,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
         <v>83</v>
@@ -1054,10 +1054,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
         <v>83</v>
@@ -1068,7 +1068,7 @@
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D35" t="s">
         <v>81</v>
@@ -1079,7 +1079,7 @@
         <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
         <v>81</v>
@@ -1090,7 +1090,7 @@
         <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D37" t="s">
         <v>81</v>
@@ -1101,7 +1101,7 @@
         <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" t="s">
         <v>81</v>
@@ -1112,7 +1112,7 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
         <v>81</v>
@@ -1123,7 +1123,7 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D40" t="s">
         <v>76</v>
@@ -1134,7 +1134,7 @@
         <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D41" t="s">
         <v>82</v>
@@ -1148,7 +1148,7 @@
         <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
         <v>82</v>
@@ -1159,7 +1159,7 @@
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D43" t="s">
         <v>82</v>
@@ -1170,7 +1170,7 @@
         <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D44" t="s">
         <v>82</v>
@@ -1181,7 +1181,7 @@
         <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45" t="s">
         <v>84</v>
@@ -1192,7 +1192,7 @@
         <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D46" t="s">
         <v>85</v>
@@ -1203,7 +1203,7 @@
         <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D47" t="s">
         <v>85</v>
@@ -1214,7 +1214,7 @@
         <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D48" t="s">
         <v>82</v>
@@ -1225,7 +1225,7 @@
         <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D49" t="s">
         <v>82</v>
@@ -1236,7 +1236,7 @@
         <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D50" t="s">
         <v>82</v>
@@ -1250,7 +1250,7 @@
         <v>67</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D51" t="s">
         <v>83</v>
@@ -1264,7 +1264,7 @@
         <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D52" t="s">
         <v>82</v>
@@ -1275,7 +1275,7 @@
         <v>46</v>
       </c>
       <c r="C53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D53" t="s">
         <v>76</v>
@@ -1286,7 +1286,7 @@
         <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D54" t="s">
         <v>82</v>
@@ -1297,7 +1297,7 @@
         <v>47</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D55" t="s">
         <v>83</v>
@@ -1308,7 +1308,7 @@
         <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D56" t="s">
         <v>83</v>
@@ -1319,7 +1319,7 @@
         <v>49</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D57" t="s">
         <v>83</v>
@@ -1330,7 +1330,7 @@
         <v>50</v>
       </c>
       <c r="C58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D58" t="s">
         <v>83</v>
@@ -1341,7 +1341,7 @@
         <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D59" t="s">
         <v>83</v>
@@ -1352,7 +1352,7 @@
         <v>52</v>
       </c>
       <c r="C60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D60" t="s">
         <v>83</v>
@@ -1363,7 +1363,7 @@
         <v>53</v>
       </c>
       <c r="C61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D61" t="s">
         <v>80</v>
@@ -1374,7 +1374,7 @@
         <v>54</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D62" t="s">
         <v>83</v>
@@ -1385,10 +1385,10 @@
         <v>55</v>
       </c>
       <c r="C63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D63" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1396,10 +1396,10 @@
         <v>56</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D64" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1407,10 +1407,10 @@
         <v>57</v>
       </c>
       <c r="C65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D65" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1418,7 +1418,7 @@
         <v>58</v>
       </c>
       <c r="C66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D66" t="s">
         <v>76</v>
@@ -1429,7 +1429,7 @@
         <v>59</v>
       </c>
       <c r="C67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D67" t="s">
         <v>77</v>
@@ -1440,7 +1440,7 @@
         <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D68" t="s">
         <v>82</v>
@@ -1451,7 +1451,7 @@
         <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D69" t="s">
         <v>83</v>
@@ -1462,7 +1462,7 @@
         <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D70" t="s">
         <v>83</v>
@@ -1473,7 +1473,7 @@
         <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D71" t="s">
         <v>83</v>
@@ -1484,7 +1484,7 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D72" t="s">
         <v>83</v>
@@ -1495,7 +1495,7 @@
         <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D73" t="s">
         <v>82</v>

--- a/regex.xlsx
+++ b/regex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Desktop\fase 3 actualizado\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4914C373-E6F4-4E62-94CC-543BE8CC5CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E33E4E-7F4B-420E-B117-04A0FCE8F3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="112">
   <si>
     <t>padrao</t>
   </si>
@@ -349,6 +349,140 @@
   </si>
   <si>
     <t>Data no formato DD-MM-AAAA (ex: 30-05-2024)</t>
+  </si>
+  <si>
+    <t>count-selected(.) = 1 or 
+(
+  count-selected(.) &gt;= 2 and (
+    (
+      not(selected(., 'sm_5') or selected(., 'sm_6')) and
+      (selected(., 'sm_1') or selected(., 'sm_2') or selected(., 'sm_3') or selected(., 'sm_4')) and
+      (
+        not(selected(., 'sm_5')) and not(selected(., 'sm_6')) and
+        not(selected(., 'sm_7')) and not(selected(., 'sm_8')) and not(selected(., 'sm_9'))
+      )
+    ) or
+    (
+      (selected(., 'sm_5') or selected(., 'sm_6')) and
+      not(selected(., 'sm_1') or selected(., 'sm_2') or selected(., 'sm_3') or selected(., 'sm_4') or 
+           selected(., 'sm_7') or selected(., 'sm_8') or selected(., 'sm_9'))
+    )
+  )
+)</t>
+  </si>
+  <si>
+    <t>QEPE_DGE_SQE_B1_P13_0_subsistema_modal</t>
+  </si>
+  <si>
+    <t>A combinação dos subsistemas e modalidades não é válida</t>
+  </si>
+  <si>
+    <t>(
+  not(selected(${QEPE_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_1')) or 
+  (
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_1') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_2') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_3') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_4')
+  )
+)
+and 
+(
+  not(selected(${QEPE_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_2')) or 
+  (
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_5') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_6') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_7') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_8') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_9') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_10') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_11') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_12') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_13')
+  )
+)
+and 
+(
+  not(selected(${QEPE_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_3')) or 
+  (
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_14') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_15') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_16')
+  )
+)
+and 
+(
+  not(selected(${QEPE_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_4')) or 
+  (
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_17') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_18') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_19')
+  )
+)
+and 
+(
+  not(selected(${QEPE_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_5')) or 
+  (
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_14') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_15') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_16')
+  )
+)
+and 
+(
+  not(selected(${QEPE_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_6')) or 
+  (
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_17') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_18') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_19') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_20')
+  )
+)
+and 
+(
+  not(selected(${QEPE_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_7')) or 
+  (
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_17') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_18') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_19') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_20')
+  )
+)
+and 
+(
+  not(selected(${QEPE_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_8')) or 
+  (
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_21') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_22') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_23') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_24') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_25')
+  )
+)
+and 
+(
+  not(selected(${QEPE_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_9')) or 
+  (
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_4') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_5') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_6') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_7') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_8') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_9') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_10') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_14') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_15') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_16') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_17') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_18') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_19') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_20') or 
+    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_26')
+  )
+)</t>
+  </si>
+  <si>
+    <t>Deve seleccionar pelo menos uma classe correspondente a cada subsistema marcado na pergunta anterior</t>
   </si>
 </sst>
 </file>
@@ -384,8 +518,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="B75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,6 +1638,25 @@
         <v>82</v>
       </c>
     </row>
+    <row r="74" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D75" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/regex.xlsx
+++ b/regex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Desktop\fase 3 actualizado\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E33E4E-7F4B-420E-B117-04A0FCE8F3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A988288-5159-4E9F-809A-71B748D6E074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="107">
   <si>
     <t>padrao</t>
   </si>
@@ -349,140 +349,6 @@
   </si>
   <si>
     <t>Data no formato DD-MM-AAAA (ex: 30-05-2024)</t>
-  </si>
-  <si>
-    <t>count-selected(.) = 1 or 
-(
-  count-selected(.) &gt;= 2 and (
-    (
-      not(selected(., 'sm_5') or selected(., 'sm_6')) and
-      (selected(., 'sm_1') or selected(., 'sm_2') or selected(., 'sm_3') or selected(., 'sm_4')) and
-      (
-        not(selected(., 'sm_5')) and not(selected(., 'sm_6')) and
-        not(selected(., 'sm_7')) and not(selected(., 'sm_8')) and not(selected(., 'sm_9'))
-      )
-    ) or
-    (
-      (selected(., 'sm_5') or selected(., 'sm_6')) and
-      not(selected(., 'sm_1') or selected(., 'sm_2') or selected(., 'sm_3') or selected(., 'sm_4') or 
-           selected(., 'sm_7') or selected(., 'sm_8') or selected(., 'sm_9'))
-    )
-  )
-)</t>
-  </si>
-  <si>
-    <t>QEPE_DGE_SQE_B1_P13_0_subsistema_modal</t>
-  </si>
-  <si>
-    <t>A combinação dos subsistemas e modalidades não é válida</t>
-  </si>
-  <si>
-    <t>(
-  not(selected(${QEPE_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_1')) or 
-  (
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_1') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_2') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_3') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_4')
-  )
-)
-and 
-(
-  not(selected(${QEPE_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_2')) or 
-  (
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_5') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_6') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_7') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_8') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_9') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_10') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_11') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_12') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_13')
-  )
-)
-and 
-(
-  not(selected(${QEPE_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_3')) or 
-  (
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_14') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_15') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_16')
-  )
-)
-and 
-(
-  not(selected(${QEPE_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_4')) or 
-  (
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_17') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_18') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_19')
-  )
-)
-and 
-(
-  not(selected(${QEPE_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_5')) or 
-  (
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_14') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_15') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_16')
-  )
-)
-and 
-(
-  not(selected(${QEPE_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_6')) or 
-  (
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_17') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_18') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_19') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_20')
-  )
-)
-and 
-(
-  not(selected(${QEPE_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_7')) or 
-  (
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_17') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_18') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_19') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_20')
-  )
-)
-and 
-(
-  not(selected(${QEPE_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_8')) or 
-  (
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_21') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_22') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_23') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_24') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_25')
-  )
-)
-and 
-(
-  not(selected(${QEPE_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_9')) or 
-  (
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_4') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_5') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_6') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_7') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_8') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_9') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_10') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_14') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_15') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_16') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_17') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_18') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_19') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_20') or 
-    selected(${QEPE_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_26')
-  )
-)</t>
-  </si>
-  <si>
-    <t>Deve seleccionar pelo menos uma classe correspondente a cada subsistema marcado na pergunta anterior</t>
   </si>
 </sst>
 </file>
@@ -518,11 +384,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,25 +1501,6 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>108</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D74" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="C75" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D75" t="s">
-        <v>111</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/regex.xlsx
+++ b/regex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Desktop\fase 3 actualizado\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A988288-5159-4E9F-809A-71B748D6E074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E576EA-1E52-4DE9-8844-0F31F053D320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$D$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$D$74</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="112">
   <si>
     <t>padrao</t>
   </si>
@@ -255,9 +255,6 @@
     <t>num_educadores_infancia</t>
   </si>
   <si>
-    <t>Ano deve ser 2024 ou 2025</t>
-  </si>
-  <si>
     <t>Este Campo de texto  é obrigatório, no máximo 100 caracteres</t>
   </si>
   <si>
@@ -294,15 +291,9 @@
     <t>Número de telefone angolano (ex: 923456789)</t>
   </si>
   <si>
-    <t>(. = 2024 or . = 2025)</t>
-  </si>
-  <si>
     <t>regex(., '^.{1,100}$')</t>
   </si>
   <si>
-    <t>regex(., '^.{0,15}$')</t>
-  </si>
-  <si>
     <t>regex(., '^\d{1,2}$')</t>
   </si>
   <si>
@@ -349,6 +340,30 @@
   </si>
   <si>
     <t>Data no formato DD-MM-AAAA (ex: 30-05-2024)</t>
+  </si>
+  <si>
+    <t>regex(., '^(200[0-9]|201[0-9]|202[0-4])$')</t>
+  </si>
+  <si>
+    <t>O ano deve estar entre 2000 e 2024, e não pode começar com 1</t>
+  </si>
+  <si>
+    <t>O fim do ano letivo deve ser igual ao início ou ao ano seguinte</t>
+  </si>
+  <si>
+    <t>. = ${QEPE_DGE_SQE_B0_P2_inicio_ano_lectivo} or . = ${QEPE_DGE_SQE_B0_P2_inicio_ano_lectivo} + 1</t>
+  </si>
+  <si>
+    <t>B0_P3_fim_ano_lectivo</t>
+  </si>
+  <si>
+    <t>regex(., '^[A-Za-z].*')</t>
+  </si>
+  <si>
+    <t>regex(., '^[A-Za-zÀ-ÿ\s]+$')</t>
+  </si>
+  <si>
+    <t>Só são permitidas letras e espaços. Números e símbolos não são aceitos</t>
   </si>
 </sst>
 </file>
@@ -666,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:XFD74"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,572 +714,569 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D45" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D48" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D52" t="s">
         <v>82</v>
@@ -1272,233 +1284,247 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>71</v>
       </c>
       <c r="C53" t="s">
         <v>89</v>
       </c>
       <c r="D53" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D54" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D55" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D61" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C62" t="s">
         <v>93</v>
       </c>
       <c r="D62" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C63" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C64" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C65" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D65" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C66" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D66" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C67" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C68" t="s">
         <v>92</v>
       </c>
       <c r="D68" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D69" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C72" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>70</v>
       </c>
-      <c r="C73" t="s">
-        <v>92</v>
-      </c>
-      <c r="D73" t="s">
-        <v>82</v>
+      <c r="C74" t="s">
+        <v>89</v>
+      </c>
+      <c r="D74" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/regex.xlsx
+++ b/regex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Desktop\fase 3 actualizado\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E576EA-1E52-4DE9-8844-0F31F053D320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92276B03-7130-4602-8D78-633C4513014D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
